--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2190.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2190.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.082629142682289</v>
+        <v>1.039666533470154</v>
       </c>
       <c r="B1">
-        <v>1.990281817745631</v>
+        <v>1.659794688224792</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>6.846080303192139</v>
       </c>
       <c r="D1">
-        <v>1.888790748756781</v>
+        <v>2.701626062393188</v>
       </c>
       <c r="E1">
-        <v>0.9578243511706226</v>
+        <v>1.478082656860352</v>
       </c>
     </row>
   </sheetData>
